--- a/po_analysis_by_asin/B0DKTSJJ1S_po_data.xlsx
+++ b/po_analysis_by_asin/B0DKTSJJ1S_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45607</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>38</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>38</v>

--- a/po_analysis_by_asin/B0DKTSJJ1S_po_data.xlsx
+++ b/po_analysis_by_asin/B0DKTSJJ1S_po_data.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>

--- a/po_analysis_by_asin/B0DKTSJJ1S_po_data.xlsx
+++ b/po_analysis_by_asin/B0DKTSJJ1S_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +459,22 @@
         <v>38</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -469,7 +486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +514,133 @@
         <v>38</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45697.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45704.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45711.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45718.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45725.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45732.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
